--- a/public/exports/p_list.xlsx
+++ b/public/exports/p_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="364">
   <si>
     <t>shop_brand_id</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>barcode</t>
+  </si>
+  <si>
+    <t>description "it"</t>
   </si>
   <si>
     <t>description</t>
@@ -1138,15 +1141,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1363,7 +1372,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="30" width="8.71"/>
+    <col customWidth="1" min="1" max="5" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="80.86"/>
+    <col customWidth="1" min="7" max="7" width="77.29"/>
+    <col customWidth="1" min="8" max="31" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1382,10 +1394,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1456,6 +1468,9 @@
       </c>
       <c r="AD1" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -1463,34 +1478,35 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1">
         <v>4.18937715E8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F2,""it"",""fr"")"),"Avec gomme de guar. Idéal pour tous les types de cheveux, il les rend brillants et vitaux. Convient également pour un usage professionnel.")</f>
+        <v>Avec gomme de guar. Idéal pour tous les types de cheveux, il les rend brillants et vitaux. Convient également pour un usage professionnel.</v>
+      </c>
+      <c r="H2" s="1">
         <v>7.0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>10.0</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>34</v>
+      <c r="K2" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>35</v>
@@ -1501,53 +1517,56 @@
       <c r="N2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="1" t="b">
-        <v>1</v>
+      <c r="O2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5">
         <v>45487.6437100926</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="1">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="1">
         <v>6.178087834646383</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="1">
+      <c r="V2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="1">
         <v>19.711862261334183</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="1">
+      <c r="X2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="1">
         <v>4.619896360030632</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1">
         <v>35.98082145178262</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="1">
         <v>3.658611225137796</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -1555,34 +1574,35 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1">
         <v>7.15580373E8</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F3,""it"",""fr"")"),"Adjuvant dans les interventions de prévention de la chute des cheveux. Aide les cheveux à paraître plus brillants.")</f>
+        <v>Adjuvant dans les interventions de prévention de la chute des cheveux. Aide les cheveux à paraître plus brillants.</v>
+      </c>
+      <c r="H3" s="1">
         <v>1.0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>7.0</v>
       </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>47</v>
@@ -1591,55 +1611,58 @@
         <v>48</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="1" t="b">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5">
         <v>45584.34365214121</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="S3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="1">
+        <v>43</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="1">
         <v>2.3496782811710455</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="1">
+      <c r="V3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="1">
         <v>8.786238016977457</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="1">
+      <c r="X3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="1">
         <v>18.961294270174687</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3" s="1">
+      <c r="Z3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="1">
         <v>35.854615161804674</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="1">
         <v>8.931708936847158</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD3" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1647,34 +1670,35 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1">
         <v>2.07703206E8</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F4,""it"",""fr"")"),"Il agit directement sur les parties endommagées des cheveux. Contient des additifs minéralisants. Il favorise de manière significative le brushing et le peignage, agissant comme un excellent démêlant et émollient. Il aide à stabiliser les conditions physi"&amp;"ologiques idéales de la peau, agissant ainsi également comme un anti-inflammatoire. agent antipelliculaire et anti-graisse.10x12ml.")</f>
+        <v>Il agit directement sur les parties endommagées des cheveux. Contient des additifs minéralisants. Il favorise de manière significative le brushing et le peignage, agissant comme un excellent démêlant et émollient. Il aide à stabiliser les conditions physiologiques idéales de la peau, agissant ainsi également comme un anti-inflammatoire. agent antipelliculaire et anti-graisse.10x12ml.</v>
+      </c>
+      <c r="H4" s="1">
         <v>8.0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>6.0</v>
       </c>
-      <c r="I4" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>55</v>
@@ -1683,55 +1707,58 @@
         <v>56</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="1" t="b">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
         <v>45331.06692815972</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="S4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="1">
+        <v>51</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="1">
         <v>4.861426918623173</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" s="1">
+      <c r="V4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="1">
         <v>35.753810308527044</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X4" s="1">
+      <c r="X4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="1">
         <v>9.787193217571431</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="1">
         <v>34.40351806072702</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="1">
         <v>7.02448695002634</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD4" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -1739,34 +1766,35 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1">
         <v>3.60172271E8</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5.0</v>
+      <c r="F5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F5,""it"",""fr"")"),"À l'huile d'argan. Nettoie en douceur sans altérer l'équilibre naturel. Usage professionnel.")</f>
+        <v>À l'huile d'argan. Nettoie en douceur sans altérer l'équilibre naturel. Usage professionnel.</v>
       </c>
       <c r="H5" s="1">
         <v>5.0</v>
       </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
+      <c r="I5" s="1">
+        <v>5.0</v>
       </c>
       <c r="J5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>64</v>
@@ -1775,55 +1803,58 @@
         <v>65</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="1" t="b">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5">
         <v>45387.67287790509</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="S5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T5" s="1">
+        <v>60</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="1">
         <v>3.964479219758176</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="1">
+      <c r="V5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="1">
         <v>28.269602477794315</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="1">
+      <c r="X5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="1">
         <v>49.81461274141993</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="1">
         <v>21.79644632020549</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="1">
         <v>1.6502598268527886</v>
       </c>
-      <c r="AC5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD5" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -1831,34 +1862,35 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1">
         <v>2.72602536E8</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4.0</v>
+      <c r="F6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F6,""it"",""fr"")"),"1000ml.")</f>
+        <v>1000ml.</v>
       </c>
       <c r="H6" s="1">
         <v>4.0</v>
       </c>
-      <c r="I6" s="1" t="b">
-        <v>1</v>
+      <c r="I6" s="1">
+        <v>4.0</v>
       </c>
       <c r="J6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>72</v>
@@ -1867,55 +1899,58 @@
         <v>73</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="1" t="b">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5">
         <v>45607.44722495371</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="S6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T6" s="1">
+        <v>68</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" s="1">
         <v>4.401787457634993</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V6" s="1">
+      <c r="V6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="1">
         <v>2.7850755202687107</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X6" s="1">
+      <c r="X6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="1">
         <v>28.780183981983907</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="1">
         <v>22.7703367184509</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6" s="1">
         <v>4.242012642434566</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD6" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1923,34 +1958,35 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1">
         <v>3.2109961E8</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F7,""it"",""fr"")"),"Aux protéines de soie. Renforce et répare les cheveux colorés, traités et sensibilisés, les rendant doux, soyeux et brillants. Idéal également pour un usage professionnel.")</f>
+        <v>Aux protéines de soie. Renforce et répare les cheveux colorés, traités et sensibilisés, les rendant doux, soyeux et brillants. Idéal également pour un usage professionnel.</v>
+      </c>
+      <c r="H7" s="1">
         <v>9.0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>2.0</v>
-      </c>
-      <c r="I7" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>79</v>
+      <c r="K7" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>80</v>
@@ -1959,55 +1995,58 @@
         <v>81</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="1" t="b">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5">
         <v>45464.38058917824</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="S7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T7" s="1">
+        <v>76</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7" s="1">
         <v>7.284445827479068</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V7" s="1">
+      <c r="V7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="1">
         <v>2.1935520515909155</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X7" s="1">
+      <c r="X7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="1">
         <v>6.4066245173151675</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="1">
         <v>5.950238313338036</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7" s="1">
         <v>1.7305082307064061</v>
       </c>
-      <c r="AC7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD7" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -2015,34 +2054,35 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1">
         <v>9.9000364E8</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2.0</v>
+      <c r="F8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F8,""it"",""fr"")"),"Émulsion oxydante pour coloration et blanchiment; destiné exclusivement à être utilisé dans des mélanges avec des colorants oxydants ou des poudres/crèmes décolorantes pour cheveux Usage professionnel 980 ml.")</f>
+        <v>Émulsion oxydante pour coloration et blanchiment; destiné exclusivement à être utilisé dans des mélanges avec des colorants oxydants ou des poudres/crèmes décolorantes pour cheveux Usage professionnel 980 ml.</v>
       </c>
       <c r="H8" s="1">
         <v>2.0</v>
       </c>
-      <c r="I8" s="1" t="b">
-        <v>1</v>
+      <c r="I8" s="1">
+        <v>2.0</v>
       </c>
       <c r="J8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>89</v>
@@ -2051,55 +2091,58 @@
         <v>90</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="1" t="b">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5">
         <v>45453.26498607639</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="S8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T8" s="1">
+        <v>85</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8" s="1">
         <v>4.919023229032014</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V8" s="1">
+      <c r="V8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="1">
         <v>18.660723864289448</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X8" s="1">
+      <c r="X8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="1">
         <v>47.28859706283661</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="1">
         <v>16.732741921644894</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC8" s="1">
         <v>4.546049561152672</v>
       </c>
-      <c r="AC8" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD8" s="1" t="s">
-        <v>92</v>
+        <v>41</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -2107,34 +2150,35 @@
         <v>2.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1">
         <v>7.91709567E8</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F9,""it"",""fr"")"),"24 sachets x 35g. À l'huile de germe de blé biologique. Poudre parfumée lourde et non volatile. Pouvoir décolorant accru, jusqu'à 9 tons. Performance maximale dans toutes les techniques d'éclaircissement (mèches, balayages, décapage et décoloration). util"&amp;"isation. Il ne gonfle pas, ne chauffe pas et ne glisse pas lors de l'application.")</f>
+        <v>24 sachets x 35g. À l'huile de germe de blé biologique. Poudre parfumée lourde et non volatile. Pouvoir décolorant accru, jusqu'à 9 tons. Performance maximale dans toutes les techniques d'éclaircissement (mèches, balayages, décapage et décoloration). utilisation. Il ne gonfle pas, ne chauffe pas et ne glisse pas lors de l'application.</v>
+      </c>
+      <c r="H9" s="1">
         <v>6.0</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>2.0</v>
       </c>
-      <c r="I9" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>98</v>
@@ -2143,55 +2187,58 @@
         <v>99</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="1" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
         <v>45428.29383259259</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="S9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T9" s="1">
+        <v>94</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U9" s="1">
         <v>4.567292699285792</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V9" s="1">
+      <c r="V9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="1">
         <v>15.80389686656249</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X9" s="1">
+      <c r="X9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="1">
         <v>20.974310340303415</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="1">
         <v>27.57230130179127</v>
       </c>
-      <c r="AA9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC9" s="1">
         <v>7.312714122004907</v>
       </c>
-      <c r="AC9" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD9" s="1" t="s">
-        <v>101</v>
+        <v>41</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -2199,34 +2246,35 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E10" s="1">
         <v>9.18394911E8</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F10,""it"",""fr"")"),"neutralise les reflets jaunâtres des cheveux blonds, blancs, gris, décolorés, méchés ou colorés avec des colorants super éclaircissants. Grâce à la KÉRATINE et à l'HUILE DE GERME DE BLÉ BIO qu'elle contient, elle assure hydratation, luminosité et élastici"&amp;"té aux cheveux. après le shampooing, répartir sur cheveux encore mouillés en massant. Pour un résultat optimal nous recommandons un temps de pose ne dépassant pas 5 minutes, puis rincer soigneusement.500 ml.")</f>
+        <v>neutralise les reflets jaunâtres des cheveux blonds, blancs, gris, décolorés, méchés ou colorés avec des colorants super éclaircissants. Grâce à la KÉRATINE et à l'HUILE DE GERME DE BLÉ BIO qu'elle contient, elle assure hydratation, luminosité et élasticité aux cheveux. après le shampooing, répartir sur cheveux encore mouillés en massant. Pour un résultat optimal nous recommandons un temps de pose ne dépassant pas 5 minutes, puis rincer soigneusement.500 ml.</v>
+      </c>
+      <c r="H10" s="1">
         <v>8.0</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>10.0</v>
-      </c>
-      <c r="I10" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>106</v>
+      <c r="K10" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>107</v>
@@ -2235,55 +2283,58 @@
         <v>108</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="1" t="b">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5">
         <v>45417.265953333335</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="S10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="T10" s="1">
+        <v>103</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U10" s="1">
         <v>7.812350439455645</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V10" s="1">
+      <c r="V10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="1">
         <v>3.64895739683907</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X10" s="1">
+      <c r="X10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="1">
         <v>21.079380368695542</v>
       </c>
-      <c r="Y10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z10" s="1">
+      <c r="Z10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" s="1">
         <v>9.57432310809119</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC10" s="1">
         <v>6.299768017895781</v>
       </c>
-      <c r="AC10" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD10" s="1" t="s">
-        <v>110</v>
+        <v>41</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -2291,34 +2342,35 @@
         <v>2.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1">
         <v>2.47323869E8</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="F11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F11,""it"",""fr"")"),"Pour cheveux gris, très éclaircis, décolorés ou méchés. Formulé avec une double concentration de pigments colorés, il fait ressortir efficacement les tons froids et gris des cheveux, tout en neutralisant les tons jaunâtres indésirables. Idéal comme toniqu"&amp;"e après le traitement de décoloration. . Tonifie l'argent au violet d'intensité variable en fonction du type de décoloration et de la porosité des cheveux. Enrichi en kératine et huile de germe de blé biologique. sls et sles, silicones, pétrolatum et para"&amp;"bens.1000ml.")</f>
+        <v>Pour cheveux gris, très éclaircis, décolorés ou méchés. Formulé avec une double concentration de pigments colorés, il fait ressortir efficacement les tons froids et gris des cheveux, tout en neutralisant les tons jaunâtres indésirables. Idéal comme tonique après le traitement de décoloration. . Tonifie l'argent au violet d'intensité variable en fonction du type de décoloration et de la porosité des cheveux. Enrichi en kératine et huile de germe de blé biologique. sls et sles, silicones, pétrolatum et parabens.1000ml.</v>
+      </c>
+      <c r="H11" s="1">
         <v>1.0</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>5.0</v>
-      </c>
-      <c r="I11" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>115</v>
+      <c r="K11" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>116</v>
@@ -2327,55 +2379,58 @@
         <v>117</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" s="1" t="b">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="5">
         <v>45494.73266178241</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="S11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T11" s="1">
+        <v>112</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U11" s="1">
         <v>1.938598406041971</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V11" s="1">
+      <c r="V11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" s="1">
         <v>23.83041960273981</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X11" s="1">
+      <c r="X11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="1">
         <v>7.039776132247535</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z11" s="1">
+      <c r="Z11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="1">
         <v>30.899531429941696</v>
       </c>
-      <c r="AA11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB11" s="1">
+      <c r="AB11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC11" s="1">
         <v>2.0566437316188466</v>
       </c>
-      <c r="AC11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD11" s="1" t="s">
-        <v>119</v>
+        <v>41</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2383,34 +2438,35 @@
         <v>2.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E12" s="1">
         <v>1.07755383E8</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="F12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F12,""it"",""fr"")"),"Sublimateur de lumière plastifiant qui rehausse et ravive la brillance des cheveux, avec un effet éclatant. Les microparticules éclairantes spéciales accentuent la brillance des cheveux avec un effet léger, qui ne les alourdit pas. UTILISATION : Vaporiser"&amp;" sur cheveux secs pour compléter le processus de stratification et leur donner un facteur Extra Shine. Appliquer même plusieurs fois par jour pour les rehausser. l'effet miroir des cheveux.")</f>
+        <v>Sublimateur de lumière plastifiant qui rehausse et ravive la brillance des cheveux, avec un effet éclatant. Les microparticules éclairantes spéciales accentuent la brillance des cheveux avec un effet léger, qui ne les alourdit pas. UTILISATION : Vaporiser sur cheveux secs pour compléter le processus de stratification et leur donner un facteur Extra Shine. Appliquer même plusieurs fois par jour pour les rehausser. l'effet miroir des cheveux.</v>
+      </c>
+      <c r="H12" s="1">
         <v>6.0</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>1.0</v>
-      </c>
-      <c r="I12" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>124</v>
+      <c r="K12" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>125</v>
@@ -2419,55 +2475,58 @@
         <v>126</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="1" t="b">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5">
         <v>45275.9248490162</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="S12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="T12" s="1">
+        <v>121</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U12" s="1">
         <v>8.491213097872413</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V12" s="1">
+      <c r="V12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" s="1">
         <v>39.00741837828453</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X12" s="1">
+      <c r="X12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="1">
         <v>37.06780152930199</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z12" s="1">
+      <c r="Z12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" s="1">
         <v>26.258543447797212</v>
       </c>
-      <c r="AA12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB12" s="1">
+      <c r="AB12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC12" s="1">
         <v>4.140280647240158</v>
       </c>
-      <c r="AC12" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD12" s="1" t="s">
-        <v>128</v>
+        <v>41</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -2475,10 +2534,10 @@
         <v>2.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D13" s="3">
         <v>2.4006252E8</v>
@@ -2486,23 +2545,24 @@
       <c r="E13" s="1">
         <v>3.10420152E8</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="F13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F13,""it"",""fr"")"),"Crème thermoactive concentrée à double action nourrissante et laminante Enrichie en biopeptides de haut poids moléculaire, véhiculés par l'action fluidifiante de l'huile de coco, elle nourrit, adoucit et apporte une structure protéique à l'intérieur du ch"&amp;"eveu. Son pH acide particulier scelle instantanément les squames pour concentrer leur effet nourrissant et régénérant, créant une couche externe protectrice. La Technologie Thermoactive spéciale, enrichie en Acide Hyaluronique et en Vitamine E, fixe le tr"&amp;"aitement de stratification sur les écailles avec un effet « lamellaire » uniforme et brillant. UTILISATION : Appliquer sur cheveux mouillés et masser longuement. Rincer et répéter l'application. Séchez partiellement vos cheveux avant de passer à l'étape s"&amp;"uivante.")</f>
+        <v>Crème thermoactive concentrée à double action nourrissante et laminante Enrichie en biopeptides de haut poids moléculaire, véhiculés par l'action fluidifiante de l'huile de coco, elle nourrit, adoucit et apporte une structure protéique à l'intérieur du cheveu. Son pH acide particulier scelle instantanément les squames pour concentrer leur effet nourrissant et régénérant, créant une couche externe protectrice. La Technologie Thermoactive spéciale, enrichie en Acide Hyaluronique et en Vitamine E, fixe le traitement de stratification sur les écailles avec un effet « lamellaire » uniforme et brillant. UTILISATION : Appliquer sur cheveux mouillés et masser longuement. Rincer et répéter l'application. Séchez partiellement vos cheveux avant de passer à l'étape suivante.</v>
+      </c>
+      <c r="H13" s="1">
         <v>1.0</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>7.0</v>
       </c>
-      <c r="I13" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>133</v>
@@ -2511,55 +2571,58 @@
         <v>134</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="1" t="b">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" s="5">
         <v>45503.116279444446</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="S13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T13" s="1">
+        <v>130</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U13" s="1">
         <v>9.833108493206735</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V13" s="1">
+      <c r="V13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13" s="1">
         <v>7.787859760371866</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X13" s="1">
+      <c r="X13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y13" s="1">
         <v>21.067814756229563</v>
       </c>
-      <c r="Y13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z13" s="1">
+      <c r="Z13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA13" s="1">
         <v>35.21727129709134</v>
       </c>
-      <c r="AA13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB13" s="1">
+      <c r="AB13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC13" s="1">
         <v>0.49943368714891</v>
       </c>
-      <c r="AC13" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD13" s="1" t="s">
-        <v>136</v>
+        <v>41</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14">
@@ -2567,31 +2630,32 @@
         <v>2.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E14" s="1">
         <v>1.24008607E8</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="F14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F14,""it"",""fr"")"),"Le PRIMER prépare les cheveux au processus d'alcalinisation des protéines, c'est-à-dire au dépôt des substances de substitution à l'intérieur. Le pH 6,5 de la formule facilite l'ouverture des écailles sans affecter la structure du cheveu. UTILISATION : Ap"&amp;"rès le shampooing, sécher partiellement pour éliminer les résidus d'eau et vaporiser le Primer uniformément sur les longueurs et les pointes. Massez et peignez doucement. Retirez tout excédent de produit avec un sèche-cheveux et procédez au Traitement de "&amp;"Stratification.")</f>
+        <v>Le PRIMER prépare les cheveux au processus d'alcalinisation des protéines, c'est-à-dire au dépôt des substances de substitution à l'intérieur. Le pH 6,5 de la formule facilite l'ouverture des écailles sans affecter la structure du cheveu. UTILISATION : Après le shampooing, sécher partiellement pour éliminer les résidus d'eau et vaporiser le Primer uniformément sur les longueurs et les pointes. Massez et peignez doucement. Retirez tout excédent de produit avec un sèche-cheveux et procédez au Traitement de Stratification.</v>
+      </c>
+      <c r="H14" s="1">
         <v>7.0</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>10.0</v>
-      </c>
-      <c r="I14" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>140</v>
+      <c r="K14" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>141</v>
@@ -2600,55 +2664,58 @@
         <v>142</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" s="1" t="b">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" s="5">
         <v>45565.00689434027</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="S14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="T14" s="1">
+        <v>138</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U14" s="1">
         <v>9.094805319723937</v>
       </c>
-      <c r="U14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V14" s="1">
+      <c r="V14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" s="1">
         <v>15.656280515226985</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X14" s="1">
+      <c r="X14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y14" s="1">
         <v>14.918832123440607</v>
       </c>
-      <c r="Y14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z14" s="1">
+      <c r="Z14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA14" s="1">
         <v>10.388270442238424</v>
       </c>
-      <c r="AA14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB14" s="1">
+      <c r="AB14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC14" s="1">
         <v>1.805378202821305</v>
       </c>
-      <c r="AC14" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD14" s="1" t="s">
-        <v>144</v>
+        <v>41</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -2656,34 +2723,35 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E15" s="1">
         <v>5.65670668E8</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F15,""it"",""fr"")"),"Cosmétique pour la beauté des cheveux aux protéines de soie.Il améliore la brillance naturelle des cheveux.Il protège du dessèchement dû aux traitements intensifs, à la pollution et aux agents atmosphériques.Il enveloppe les cheveux d'une micro-gaine élas"&amp;"tique et soude les pointes fourchues.Il développe une intense action revitalisante.Il confère une brillance, une luminosité et un effet soyeux intenses et cristallins.Cheveux lisses, faciles à brosser et soyeux au toucher. Démêlage – il ne huile pas.cod. "&amp;"12077211C - 100ml")</f>
+        <v>Cosmétique pour la beauté des cheveux aux protéines de soie.Il améliore la brillance naturelle des cheveux.Il protège du dessèchement dû aux traitements intensifs, à la pollution et aux agents atmosphériques.Il enveloppe les cheveux d'une micro-gaine élastique et soude les pointes fourchues.Il développe une intense action revitalisante.Il confère une brillance, une luminosité et un effet soyeux intenses et cristallins.Cheveux lisses, faciles à brosser et soyeux au toucher. Démêlage – il ne huile pas.cod. 12077211C - 100ml</v>
+      </c>
+      <c r="H15" s="1">
         <v>6.0</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>1.0</v>
       </c>
-      <c r="I15" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>150</v>
@@ -2692,55 +2760,58 @@
         <v>151</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" s="1" t="b">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="5">
         <v>45496.46874704861</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="S15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T15" s="1">
+        <v>146</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U15" s="1">
         <v>9.796275940718994</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V15" s="1">
+      <c r="V15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" s="1">
         <v>30.997276011314515</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X15" s="1">
+      <c r="X15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="1">
         <v>36.242152911488496</v>
       </c>
-      <c r="Y15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z15" s="1">
+      <c r="Z15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA15" s="1">
         <v>23.970247712562674</v>
       </c>
-      <c r="AA15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB15" s="1">
+      <c r="AB15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC15" s="1">
         <v>8.214421155151951</v>
       </c>
-      <c r="AC15" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD15" s="1" t="s">
-        <v>153</v>
+        <v>41</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -2748,34 +2819,35 @@
         <v>2.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E16" s="1">
         <v>4.16953677E8</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="F16" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F16,""it"",""fr"")"),"Traitement de lissage biphasé (gel lisseur émulsion sten + neutralisant sten neutre), recommandé pour des résultats longue durée sur tous types de cheveux, naturels ou traités. Pour usage professionnel. Gel lissant : 100 ml + neutralisant : 100 ml.")</f>
+        <v>Traitement de lissage biphasé (gel lisseur émulsion sten + neutralisant sten neutre), recommandé pour des résultats longue durée sur tous types de cheveux, naturels ou traités. Pour usage professionnel. Gel lissant : 100 ml + neutralisant : 100 ml.</v>
+      </c>
+      <c r="H16" s="1">
         <v>8.0</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>6.0</v>
       </c>
-      <c r="I16" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>159</v>
@@ -2784,55 +2856,58 @@
         <v>160</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" s="1" t="b">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" s="5">
         <v>45494.17931707176</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="S16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="T16" s="1">
+        <v>155</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U16" s="1">
         <v>0.13274515339822024</v>
       </c>
-      <c r="U16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V16" s="1">
+      <c r="V16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16" s="1">
         <v>24.03814167508678</v>
       </c>
-      <c r="W16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X16" s="1">
+      <c r="X16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y16" s="1">
         <v>43.864254193982156</v>
       </c>
-      <c r="Y16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z16" s="1">
+      <c r="Z16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" s="1">
         <v>43.66613454022325</v>
       </c>
-      <c r="AA16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB16" s="1">
+      <c r="AB16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC16" s="1">
         <v>5.297117093825507</v>
       </c>
-      <c r="AC16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD16" s="1" t="s">
-        <v>162</v>
+        <v>41</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="17">
@@ -2840,34 +2915,35 @@
         <v>2.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E17" s="1">
         <v>1.51127601E8</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="F17" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F17,""it"",""fr"")"),"Pas de gaz. Assure un rendement élevé. Tenue naturelle, n'alourdit pas les cheveux ; amovible en quelques coups de pinceau.Rendement maximum.Facteur de tenue puissant.350 ml.")</f>
+        <v>Pas de gaz. Assure un rendement élevé. Tenue naturelle, n'alourdit pas les cheveux ; amovible en quelques coups de pinceau.Rendement maximum.Facteur de tenue puissant.350 ml.</v>
+      </c>
+      <c r="H17" s="1">
         <v>1.0</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>8.0</v>
-      </c>
-      <c r="I17" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>167</v>
+      <c r="K17" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>168</v>
@@ -2876,55 +2952,58 @@
         <v>169</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" s="1" t="b">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" s="5">
         <v>45488.344541053244</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="S17" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="T17" s="1">
+        <v>164</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U17" s="1">
         <v>1.872616519708349</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V17" s="1">
+      <c r="V17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" s="1">
         <v>5.9825949870161175</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X17" s="1">
+      <c r="X17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="1">
         <v>2.0973174569986135</v>
       </c>
-      <c r="Y17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z17" s="1">
+      <c r="Z17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" s="1">
         <v>2.5219276351473106</v>
       </c>
-      <c r="AA17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB17" s="1">
+      <c r="AB17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC17" s="1">
         <v>5.0805380568220935</v>
       </c>
-      <c r="AC17" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD17" s="1" t="s">
-        <v>170</v>
+        <v>41</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -2932,34 +3011,35 @@
         <v>2.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E18" s="1">
         <v>4.23877476E8</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="F18" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F18,""it"",""fr"")"),"Après-shampoing revitalisant et régénérant au caviar vertÀ utiliser après chaque shampooing, l'après-shampooing Dikson Luxury Caviar est une crème revitalisante à base d'extrait de Caulerpa Lentillifera, algue commune en Extrême-Orient, riche en minéraux,"&amp;" polysaccharides, vitamines A, C et E et oligo-éléments. , qui adoucissent les cheveux et redonnent de la vitalité à la structure capillaire, tout en la protégeant du stress oxydatif et des dommages futurs. Créé pour aider rapidement les cheveux affaiblis"&amp;" et ternes à retrouver une apparence forte, radieuse et saine. Pour de meilleurs résultats, utiliser avec les autres produits de la gamme Dikson Luxury Caviar.cod 24005903 - 280ml.cod 24005902 - 1000ml.")</f>
+        <v>Après-shampoing revitalisant et régénérant au caviar vertÀ utiliser après chaque shampooing, l'après-shampooing Dikson Luxury Caviar est une crème revitalisante à base d'extrait de Caulerpa Lentillifera, algue commune en Extrême-Orient, riche en minéraux, polysaccharides, vitamines A, C et E et oligo-éléments. , qui adoucissent les cheveux et redonnent de la vitalité à la structure capillaire, tout en la protégeant du stress oxydatif et des dommages futurs. Créé pour aider rapidement les cheveux affaiblis et ternes à retrouver une apparence forte, radieuse et saine. Pour de meilleurs résultats, utiliser avec les autres produits de la gamme Dikson Luxury Caviar.cod 24005903 - 280ml.cod 24005902 - 1000ml.</v>
+      </c>
+      <c r="H18" s="1">
         <v>8.0</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>2.0</v>
       </c>
-      <c r="I18" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>176</v>
@@ -2968,55 +3048,58 @@
         <v>177</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O18" s="1" t="b">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" s="5">
         <v>45318.583756886575</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="S18" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="T18" s="1">
+        <v>172</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U18" s="1">
         <v>8.080923657689736</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V18" s="1">
+      <c r="V18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="1">
         <v>32.42538087089301</v>
       </c>
-      <c r="W18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X18" s="1">
+      <c r="X18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="1">
         <v>27.78458114798377</v>
       </c>
-      <c r="Y18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z18" s="1">
+      <c r="Z18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA18" s="1">
         <v>14.351893566535884</v>
       </c>
-      <c r="AA18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB18" s="1">
+      <c r="AB18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC18" s="1">
         <v>6.486575462784394</v>
       </c>
-      <c r="AC18" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD18" s="1" t="s">
-        <v>179</v>
+        <v>41</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -3024,34 +3107,35 @@
         <v>2.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E19" s="1">
         <v>1.86874725E8</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F19" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F19,""it"",""fr"")"),"MASQUE REVITALISANT POUR CHEVEUX au Caviar Vert Grâce à l'action synergique des substances fonctionnelles du Masque Revitalisant, les cheveux sont revitalisés et nourris.500ml.")</f>
+        <v>MASQUE REVITALISANT POUR CHEVEUX au Caviar Vert Grâce à l'action synergique des substances fonctionnelles du Masque Revitalisant, les cheveux sont revitalisés et nourris.500ml.</v>
+      </c>
+      <c r="H19" s="1">
         <v>8.0</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>2.0</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>184</v>
+      <c r="K19" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>185</v>
@@ -3060,55 +3144,58 @@
         <v>186</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" s="1" t="b">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" s="5">
         <v>45346.63550417824</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="S19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="T19" s="1">
+        <v>181</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="U19" s="1">
         <v>5.744923906472123</v>
       </c>
-      <c r="U19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V19" s="1">
+      <c r="V19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="1">
         <v>35.52551109862609</v>
       </c>
-      <c r="W19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X19" s="1">
+      <c r="X19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" s="1">
         <v>37.60702455720031</v>
       </c>
-      <c r="Y19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z19" s="1">
+      <c r="Z19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" s="1">
         <v>46.13177866585285</v>
       </c>
-      <c r="AA19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB19" s="1">
+      <c r="AB19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC19" s="1">
         <v>7.453423136915087</v>
       </c>
-      <c r="AC19" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD19" s="1" t="s">
-        <v>188</v>
+        <v>41</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="20">
@@ -3116,34 +3203,35 @@
         <v>2.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E20" s="1">
         <v>2.94209417E8</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="F20" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F20,""it"",""fr"")"),"Une crème liquide thermo-active qui complète l'action de laminage lors du brossage des cheveux lors du brushing et du lissage, laissant les cheveux élastiques, compacts et doux. Il protège de la chaleur en fixant le film lamellaire sur la cuticule pour un"&amp;"e action éclairante « effet miroir » qui laisse les cheveux sains, pleins de vie et d'une brillance réfléchissant la lumière. UTILISATION : Pulvériser uniformément sur les longueurs et les pointes et souffler. sec. Utilisez un lisseur pour un effet encore"&amp;" plus brillant.")</f>
+        <v>Une crème liquide thermo-active qui complète l'action de laminage lors du brossage des cheveux lors du brushing et du lissage, laissant les cheveux élastiques, compacts et doux. Il protège de la chaleur en fixant le film lamellaire sur la cuticule pour une action éclairante « effet miroir » qui laisse les cheveux sains, pleins de vie et d'une brillance réfléchissant la lumière. UTILISATION : Pulvériser uniformément sur les longueurs et les pointes et souffler. sec. Utilisez un lisseur pour un effet encore plus brillant.</v>
+      </c>
+      <c r="H20" s="1">
         <v>5.0</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>3.0</v>
       </c>
-      <c r="I20" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>194</v>
@@ -3152,55 +3240,58 @@
         <v>195</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O20" s="1" t="b">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" s="5">
         <v>45484.122410138894</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="S20" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="T20" s="1">
+        <v>190</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="U20" s="1">
         <v>0.26353178464176835</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V20" s="1">
+      <c r="V20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="1">
         <v>3.6916557077215764</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X20" s="1">
+      <c r="X20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y20" s="1">
         <v>12.838133137212393</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z20" s="1">
+      <c r="Z20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA20" s="1">
         <v>45.91777522351091</v>
       </c>
-      <c r="AA20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB20" s="1">
+      <c r="AB20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC20" s="1">
         <v>0.4785120701375688</v>
       </c>
-      <c r="AC20" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD20" s="1" t="s">
-        <v>197</v>
+        <v>41</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -3208,34 +3299,35 @@
         <v>2.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E21" s="1">
         <v>7.65964233E8</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G21" s="1">
-        <v>9.0</v>
+      <c r="F21" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F21,""it"",""fr"")"),"Crème concentrée thermo-active à double action régénérante et laminante. Il nourrit et adoucit les cheveux tout en apportant une structure protéique. Son pH acide spécial scelle instantanément les écailles pour un effet reconstituant et régénérant plus ci"&amp;"blé, créant une couche externe protectrice. La Technologie Thermo-Active spéciale, boostée en Acide Hyaluronique et Vitamine E, scelle le traitement de laminage sur les écailles pour un effet « lamellaire » brillant et uniforme. UTILISATION : après le Pri"&amp;"mer, appliquer au pinceau une quantité adaptée de Concentré de Laminage sur chaque brin. Massez doucement contre les écailles pour laisser le produit absorber, puis peignez avec un peigne à dents larges pour favoriser l'action de scellement du pH. Appliqu"&amp;"er un capuchon et placer sous une source de chaleur pendant 10 minutes. Puis il s'est réveillé.")</f>
+        <v>Crème concentrée thermo-active à double action régénérante et laminante. Il nourrit et adoucit les cheveux tout en apportant une structure protéique. Son pH acide spécial scelle instantanément les écailles pour un effet reconstituant et régénérant plus ciblé, créant une couche externe protectrice. La Technologie Thermo-Active spéciale, boostée en Acide Hyaluronique et Vitamine E, scelle le traitement de laminage sur les écailles pour un effet « lamellaire » brillant et uniforme. UTILISATION : après le Primer, appliquer au pinceau une quantité adaptée de Concentré de Laminage sur chaque brin. Massez doucement contre les écailles pour laisser le produit absorber, puis peignez avec un peigne à dents larges pour favoriser l'action de scellement du pH. Appliquer un capuchon et placer sous une source de chaleur pendant 10 minutes. Puis il s'est réveillé.</v>
       </c>
       <c r="H21" s="1">
         <v>9.0</v>
       </c>
-      <c r="I21" s="1" t="b">
-        <v>0</v>
+      <c r="I21" s="1">
+        <v>9.0</v>
       </c>
       <c r="J21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>202</v>
+      <c r="K21" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>203</v>
@@ -3244,55 +3336,58 @@
         <v>204</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" s="1" t="b">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" s="5">
         <v>45396.97822875</v>
       </c>
-      <c r="R21" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="S21" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="T21" s="1">
+        <v>199</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="U21" s="1">
         <v>6.798653435869878</v>
       </c>
-      <c r="U21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V21" s="1">
+      <c r="V21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" s="1">
         <v>5.1321573953053</v>
       </c>
-      <c r="W21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X21" s="1">
+      <c r="X21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y21" s="1">
         <v>36.66531146317418</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z21" s="1">
+      <c r="Z21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA21" s="1">
         <v>5.704398822131989</v>
       </c>
-      <c r="AA21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB21" s="1">
+      <c r="AB21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC21" s="1">
         <v>1.846417278825743</v>
       </c>
-      <c r="AC21" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD21" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -3300,34 +3395,35 @@
         <v>2.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E22" s="1">
         <v>8.79732836E8</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="F22" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F22,""it"",""fr"")"),"Le PRIMER prépare les cheveux au processus d'alcalinisation des protéines, au cours duquel les cheveux sont infusés de nutriments régénérants. Le pH 7 de la formule permet d'ouvrir les écailles sans agresser la structure du cheveu. UTILISATION : BIEN AGIT"&amp;"ER AVANT UTILISATION. Après le shampooing, séchez partiellement les cheveux pour éliminer tout excès d'eau et vaporisez la Base uniformément sur les longueurs et les pointes. Massez et peignez doucement. Retirez tout excédent de produit avec un sèche-chev"&amp;"eux puis procédez au traitement de stratification.")</f>
+        <v>Le PRIMER prépare les cheveux au processus d'alcalinisation des protéines, au cours duquel les cheveux sont infusés de nutriments régénérants. Le pH 7 de la formule permet d'ouvrir les écailles sans agresser la structure du cheveu. UTILISATION : BIEN AGITER AVANT UTILISATION. Après le shampooing, séchez partiellement les cheveux pour éliminer tout excès d'eau et vaporisez la Base uniformément sur les longueurs et les pointes. Massez et peignez doucement. Retirez tout excédent de produit avec un sèche-cheveux puis procédez au traitement de stratification.</v>
+      </c>
+      <c r="H22" s="1">
         <v>2.0</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>8.0</v>
-      </c>
-      <c r="I22" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>211</v>
+      <c r="K22" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>212</v>
@@ -3336,55 +3432,58 @@
         <v>213</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O22" s="1" t="b">
-        <v>1</v>
+        <v>214</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" s="5">
         <v>45357.35612390046</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="S22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T22" s="1">
+        <v>208</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U22" s="1">
         <v>7.66987177550758</v>
       </c>
-      <c r="U22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V22" s="1">
+      <c r="V22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22" s="1">
         <v>43.77940280225554</v>
       </c>
-      <c r="W22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X22" s="1">
+      <c r="X22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="1">
         <v>41.65972005875716</v>
       </c>
-      <c r="Y22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z22" s="1">
+      <c r="Z22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA22" s="1">
         <v>40.43623921408124</v>
       </c>
-      <c r="AA22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB22" s="1">
+      <c r="AB22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC22" s="1">
         <v>4.153376168381018</v>
       </c>
-      <c r="AC22" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD22" s="1" t="s">
-        <v>215</v>
+        <v>41</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -3392,34 +3491,35 @@
         <v>2.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E23" s="1">
         <v>2.06670456E8</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="F23" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F23,""it"",""fr"")"),"Décoloration capillaire universelle rapide super professionnelle, idéale pour les décolorations fortes, les contrastes, les reflets et les reflets. Usage professionnel 24x35g.")</f>
+        <v>Décoloration capillaire universelle rapide super professionnelle, idéale pour les décolorations fortes, les contrastes, les reflets et les reflets. Usage professionnel 24x35g.</v>
+      </c>
+      <c r="H23" s="1">
         <v>9.0</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>6.0</v>
       </c>
-      <c r="I23" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>221</v>
@@ -3428,55 +3528,58 @@
         <v>222</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" s="1" t="b">
-        <v>1</v>
+        <v>223</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" s="5">
         <v>45283.69917299769</v>
       </c>
-      <c r="R23" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="S23" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="T23" s="1">
+        <v>217</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U23" s="1">
         <v>2.1987931192239567</v>
       </c>
-      <c r="U23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V23" s="1">
+      <c r="V23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="1">
         <v>5.501655474019889</v>
       </c>
-      <c r="W23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X23" s="1">
+      <c r="X23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y23" s="1">
         <v>28.21674378436249</v>
       </c>
-      <c r="Y23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z23" s="1">
+      <c r="Z23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA23" s="1">
         <v>12.204776154903128</v>
       </c>
-      <c r="AA23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB23" s="1">
+      <c r="AB23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC23" s="1">
         <v>3.1026339003165537</v>
       </c>
-      <c r="AC23" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD23" s="1" t="s">
-        <v>223</v>
+        <v>41</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -3484,34 +3587,35 @@
         <v>2.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E24" s="1">
         <v>9.0138186E8</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="F24" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F24,""it"",""fr"")"),"Gel fixateur à action polissante pour un effet mouillé longue durée.500ml.")</f>
+        <v>Gel fixateur à action polissante pour un effet mouillé longue durée.500ml.</v>
+      </c>
+      <c r="H24" s="1">
         <v>8.0</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>1.0</v>
       </c>
-      <c r="I24" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>229</v>
@@ -3520,55 +3624,58 @@
         <v>230</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" s="1" t="b">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" s="5">
         <v>45484.71202082176</v>
       </c>
-      <c r="R24" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="S24" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="T24" s="1">
+        <v>225</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="U24" s="1">
         <v>9.402872252824901</v>
       </c>
-      <c r="U24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V24" s="1">
+      <c r="V24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W24" s="1">
         <v>4.329345213226746</v>
       </c>
-      <c r="W24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X24" s="1">
+      <c r="X24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y24" s="1">
         <v>47.430467097993464</v>
       </c>
-      <c r="Y24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z24" s="1">
+      <c r="Z24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA24" s="1">
         <v>26.926175792184345</v>
       </c>
-      <c r="AA24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB24" s="1">
+      <c r="AB24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC24" s="1">
         <v>3.9703840002916184</v>
       </c>
-      <c r="AC24" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD24" s="1" t="s">
-        <v>231</v>
+        <v>41</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -3576,34 +3683,35 @@
         <v>2.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E25" s="1">
         <v>2.64847511E8</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="F25" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F25,""it"",""fr"")"),"Avec une action vitalisante sur les cheveux et tonifiant le cuir chevelu avec de la gelée royale naturelle Particulièrement adaptée en présence de pellicules et de cheveux fragiles et fragiles.")</f>
+        <v>Avec une action vitalisante sur les cheveux et tonifiant le cuir chevelu avec de la gelée royale naturelle Particulièrement adaptée en présence de pellicules et de cheveux fragiles et fragiles.</v>
+      </c>
+      <c r="H25" s="1">
         <v>4.0</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>10.0</v>
-      </c>
-      <c r="I25" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>236</v>
+      <c r="K25" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>237</v>
@@ -3612,55 +3720,58 @@
         <v>238</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" s="1" t="b">
-        <v>1</v>
+        <v>239</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" s="5">
         <v>45304.205076666665</v>
       </c>
-      <c r="R25" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="S25" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="T25" s="1">
+        <v>233</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="U25" s="1">
         <v>3.1412445627650816</v>
       </c>
-      <c r="U25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V25" s="1">
+      <c r="V25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W25" s="1">
         <v>33.01636208005974</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X25" s="1">
+      <c r="X25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y25" s="1">
         <v>49.95058161011467</v>
       </c>
-      <c r="Y25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z25" s="1">
+      <c r="Z25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA25" s="1">
         <v>35.941510091517515</v>
       </c>
-      <c r="AA25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB25" s="1">
+      <c r="AB25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC25" s="1">
         <v>6.9372953526637575</v>
       </c>
-      <c r="AC25" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD25" s="1" t="s">
-        <v>240</v>
+        <v>41</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3668,34 +3779,35 @@
         <v>2.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E26" s="1">
         <v>4.01195186E8</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="F26" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F26,""it"",""fr"")"),"Décolorant professionnel en poudre non volatile parfumée de couleur bleue, idéal pour une décoloration forte, des contrastes et des reflets. Action anti-jaunissement.")</f>
+        <v>Décolorant professionnel en poudre non volatile parfumée de couleur bleue, idéal pour une décoloration forte, des contrastes et des reflets. Action anti-jaunissement.</v>
+      </c>
+      <c r="H26" s="1">
         <v>7.0</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>2.0</v>
-      </c>
-      <c r="I26" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>245</v>
+      <c r="K26" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>246</v>
@@ -3704,55 +3816,58 @@
         <v>247</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26" s="1" t="b">
-        <v>1</v>
+        <v>248</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" s="5">
         <v>45503.42320949074</v>
       </c>
-      <c r="R26" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="S26" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="T26" s="1">
+        <v>242</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="U26" s="1">
         <v>4.4055751675597685</v>
       </c>
-      <c r="U26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V26" s="1">
+      <c r="V26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" s="1">
         <v>25.279876919632827</v>
       </c>
-      <c r="W26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X26" s="1">
+      <c r="X26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y26" s="1">
         <v>1.3699975586662776</v>
       </c>
-      <c r="Y26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z26" s="1">
+      <c r="Z26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA26" s="1">
         <v>29.875168417522293</v>
       </c>
-      <c r="AA26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB26" s="1">
+      <c r="AB26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC26" s="1">
         <v>2.978959584988733</v>
       </c>
-      <c r="AC26" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD26" s="1" t="s">
-        <v>249</v>
+        <v>41</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3760,34 +3875,35 @@
         <v>2.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E27" s="1">
         <v>3.81568818E8</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="F27" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F27,""it"",""fr"")"),"Avec extrait de placenta animal, extraits de plantes, protéines de blé. Il a une fonction cosmétique-traitante énergétique comme adjuvant dans l'action préventive contre la chute des cheveux.")</f>
+        <v>Avec extrait de placenta animal, extraits de plantes, protéines de blé. Il a une fonction cosmétique-traitante énergétique comme adjuvant dans l'action préventive contre la chute des cheveux.</v>
+      </c>
+      <c r="H27" s="1">
         <v>7.0</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>2.0</v>
-      </c>
-      <c r="I27" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>254</v>
+      <c r="K27" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>255</v>
@@ -3796,55 +3912,58 @@
         <v>256</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O27" s="1" t="b">
-        <v>1</v>
+        <v>257</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" s="5">
         <v>45363.994583761574</v>
       </c>
-      <c r="R27" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="S27" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T27" s="1">
+        <v>251</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="U27" s="1">
         <v>6.085459212102693</v>
       </c>
-      <c r="U27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V27" s="1">
+      <c r="V27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W27" s="1">
         <v>14.181711222473243</v>
       </c>
-      <c r="W27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X27" s="1">
+      <c r="X27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y27" s="1">
         <v>16.398122126110344</v>
       </c>
-      <c r="Y27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z27" s="1">
+      <c r="Z27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA27" s="1">
         <v>26.381606558521295</v>
       </c>
-      <c r="AA27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB27" s="1">
+      <c r="AB27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC27" s="1">
         <v>9.567466669420003</v>
       </c>
-      <c r="AC27" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD27" s="1" t="s">
-        <v>258</v>
+        <v>41</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3852,34 +3971,35 @@
         <v>2.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E28" s="1">
         <v>4.77035481E8</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="F28" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F28,""it"",""fr"")"),"Il protège de l'action hygroscopique du sel, du vent, du soleil et du smog. Il n'est pas gras. C'est également un démêlant antistatique, améliore le corps de la tige capillaire et réduit la présence de pointes fourchues. la création de recadrages. S'appli"&amp;"que aussi bien sur cheveux secs que mouillés.12x10ml.")</f>
+        <v>Il protège de l'action hygroscopique du sel, du vent, du soleil et du smog. Il n'est pas gras. C'est également un démêlant antistatique, améliore le corps de la tige capillaire et réduit la présence de pointes fourchues. la création de recadrages. S'applique aussi bien sur cheveux secs que mouillés.12x10ml.</v>
+      </c>
+      <c r="H28" s="1">
         <v>4.0</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>5.0</v>
       </c>
-      <c r="I28" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>264</v>
@@ -3888,55 +4008,58 @@
         <v>265</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O28" s="1" t="b">
-        <v>1</v>
+        <v>266</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P28" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R28" s="5">
         <v>45441.791317986106</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="S28" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="T28" s="1">
+        <v>260</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="U28" s="1">
         <v>5.892561745869357</v>
       </c>
-      <c r="U28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V28" s="1">
+      <c r="V28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W28" s="1">
         <v>11.683018348059825</v>
       </c>
-      <c r="W28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X28" s="1">
+      <c r="X28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y28" s="1">
         <v>23.83848687944406</v>
       </c>
-      <c r="Y28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z28" s="1">
+      <c r="Z28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA28" s="1">
         <v>49.88325481756744</v>
       </c>
-      <c r="AA28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB28" s="1">
+      <c r="AB28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC28" s="1">
         <v>0.33486243181633396</v>
       </c>
-      <c r="AC28" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD28" s="1" t="s">
-        <v>267</v>
+        <v>41</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3944,34 +4067,35 @@
         <v>2.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E29" s="1">
         <v>1.23871506E8</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="F29" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F29,""it"",""fr"")"),"Grâce aux substances particulières qu'il contient, similaires à la structure protéique des cheveux, il agit directement sur les parties endommagées, facilitant le rétablissement de l'équilibre physiologique des cheveux naturels. Il a une action protectric"&amp;"e, démêlante et émolliente efficace ; idéal aussi bien après l'application de traitements alcalins (teintures, permanentes, décolorations, etc.) comme adjuvant, qu'avant pour une action protectrice intense.12x12ml.")</f>
+        <v>Grâce aux substances particulières qu'il contient, similaires à la structure protéique des cheveux, il agit directement sur les parties endommagées, facilitant le rétablissement de l'équilibre physiologique des cheveux naturels. Il a une action protectrice, démêlante et émolliente efficace ; idéal aussi bien après l'application de traitements alcalins (teintures, permanentes, décolorations, etc.) comme adjuvant, qu'avant pour une action protectrice intense.12x12ml.</v>
+      </c>
+      <c r="H29" s="1">
         <v>7.0</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>5.0</v>
-      </c>
-      <c r="I29" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>272</v>
+      <c r="K29" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>273</v>
@@ -3980,55 +4104,58 @@
         <v>274</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O29" s="1" t="b">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P29" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" s="5">
         <v>45460.084334328705</v>
       </c>
-      <c r="R29" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="S29" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="T29" s="1">
+        <v>269</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="U29" s="1">
         <v>5.705957178544967</v>
       </c>
-      <c r="U29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V29" s="1">
+      <c r="V29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29" s="1">
         <v>1.5597170583058115</v>
       </c>
-      <c r="W29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X29" s="1">
+      <c r="X29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y29" s="1">
         <v>48.68382961763403</v>
       </c>
-      <c r="Y29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z29" s="1">
+      <c r="Z29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA29" s="1">
         <v>2.7840651253706454</v>
       </c>
-      <c r="AA29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB29" s="1">
+      <c r="AB29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC29" s="1">
         <v>1.8979236873357495</v>
       </c>
-      <c r="AC29" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD29" s="1" t="s">
-        <v>276</v>
+        <v>41</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -4036,34 +4163,35 @@
         <v>2.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E30" s="1">
         <v>2.73917991E8</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="F30" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F30,""it"",""fr"")"),"Avec Sodium PCA, Arginine, Mélange d'acides aminés, il agit en protégeant l'intégrité de la structure intercellulaire du cheveu et le renforce en augmentant son élasticité. Sans Parabens ni Sulfates 100 ml. à ceux qui ont les cheveux fragilisés par des pr"&amp;"estations techniques répétées. Diksoplex Defensive ne modifie en rien les modalités habituelles de réalisation des prestations techniques, ni dans les phases d'application ni dans les délais, mais assure la protection de la structure du cheveu au cours de"&amp;" son développement. Que le rapport de mélange de la crème colorante soit de 1:1 ou 1:1,5, la dilution avec Diksoplex Defensive 1.Shield ne change pas et il reste 2 ml de produit pour 20 ml de crème colorante. lorsque le rapport de mélange avec l'oxydant c"&amp;"oncerne une couleur super éclaircissante : dans ce cas 4 ml de Diksoplex Defensive 1.Shield doit être utilisé tous les 25g de crème colorante super éclaircissante Oui, si la structure du cheveu le permet. Non, le pouvoir éclaircissant ne change pas. Il es"&amp;"t toutefois indispensable de respecter les doses de mélange. Bien entendu, il est possible d'utiliser le système Diksoplex Defensive. sur cheveux colorés, décolorés, lissés ou permanentés, même si leur structure semble intacte. Diksoplex Defensive 1. Shie"&amp;"ld doit être mélangé dans une proportion fixe, comme indiqué dans les modalités d'application des différents services. technique. Au lieu de cela, la quantité de Diksoplex Defensive 2.Shield Magnifier dépend de la longueur des cheveux et de leur porosité."&amp;" Par conséquent, la dose peut être proportionnelle à ce qui serait utilisé si le produit était un masque ou un revitalisant. d'utilisation sont identiques que les cheveux soient naturels ou qu'il s'agisse d'extensions. Il n'y a pas de contre-indications. "&amp;"Cependant, il est conseillé de ne pas exposer les cheveux pendant le traitement avec Diksoplex Defensive à des températures supérieures. 40/45°C de chaleur humide. Il est également conseillé de contrôler plus fréquemment pendant l'opération car la chaleur"&amp;" accélère les temps d'action de la couleur et de l'eau de Javel.")</f>
+        <v>Avec Sodium PCA, Arginine, Mélange d'acides aminés, il agit en protégeant l'intégrité de la structure intercellulaire du cheveu et le renforce en augmentant son élasticité. Sans Parabens ni Sulfates 100 ml. à ceux qui ont les cheveux fragilisés par des prestations techniques répétées. Diksoplex Defensive ne modifie en rien les modalités habituelles de réalisation des prestations techniques, ni dans les phases d'application ni dans les délais, mais assure la protection de la structure du cheveu au cours de son développement. Que le rapport de mélange de la crème colorante soit de 1:1 ou 1:1,5, la dilution avec Diksoplex Defensive 1.Shield ne change pas et il reste 2 ml de produit pour 20 ml de crème colorante. lorsque le rapport de mélange avec l'oxydant concerne une couleur super éclaircissante : dans ce cas 4 ml de Diksoplex Defensive 1.Shield doit être utilisé tous les 25g de crème colorante super éclaircissante Oui, si la structure du cheveu le permet. Non, le pouvoir éclaircissant ne change pas. Il est toutefois indispensable de respecter les doses de mélange. Bien entendu, il est possible d'utiliser le système Diksoplex Defensive. sur cheveux colorés, décolorés, lissés ou permanentés, même si leur structure semble intacte. Diksoplex Defensive 1. Shield doit être mélangé dans une proportion fixe, comme indiqué dans les modalités d'application des différents services. technique. Au lieu de cela, la quantité de Diksoplex Defensive 2.Shield Magnifier dépend de la longueur des cheveux et de leur porosité. Par conséquent, la dose peut être proportionnelle à ce qui serait utilisé si le produit était un masque ou un revitalisant. d'utilisation sont identiques que les cheveux soient naturels ou qu'il s'agisse d'extensions. Il n'y a pas de contre-indications. Cependant, il est conseillé de ne pas exposer les cheveux pendant le traitement avec Diksoplex Defensive à des températures supérieures. 40/45°C de chaleur humide. Il est également conseillé de contrôler plus fréquemment pendant l'opération car la chaleur accélère les temps d'action de la couleur et de l'eau de Javel.</v>
+      </c>
+      <c r="H30" s="1">
         <v>10.0</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>7.0</v>
-      </c>
-      <c r="I30" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>281</v>
+      <c r="K30" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>282</v>
@@ -4072,55 +4200,58 @@
         <v>283</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O30" s="1" t="b">
-        <v>1</v>
+        <v>284</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P30" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" s="5">
         <v>45525.8997725</v>
       </c>
-      <c r="R30" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="S30" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="T30" s="1">
+        <v>278</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="U30" s="1">
         <v>6.30470825140477</v>
       </c>
-      <c r="U30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V30" s="1">
+      <c r="V30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W30" s="1">
         <v>48.90040284797385</v>
       </c>
-      <c r="W30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X30" s="1">
+      <c r="X30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y30" s="1">
         <v>40.198531274657405</v>
       </c>
-      <c r="Y30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z30" s="1">
+      <c r="Z30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA30" s="1">
         <v>10.405524881119922</v>
       </c>
-      <c r="AA30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB30" s="1">
+      <c r="AB30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC30" s="1">
         <v>4.274575823360623</v>
       </c>
-      <c r="AC30" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD30" s="1" t="s">
-        <v>285</v>
+        <v>41</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -4128,34 +4259,35 @@
         <v>2.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E31" s="1">
         <v>1.0437489E8</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="F31" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F31,""it"",""fr"")"),"Diksolissage Lissactif n°1 X 100mlDiksolissage Lissactif n°2")</f>
+        <v>Diksolissage Lissactif n°1 X 100mlDiksolissage Lissactif n°2</v>
+      </c>
+      <c r="H31" s="1">
         <v>7.0</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>3.0</v>
       </c>
-      <c r="I31" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>291</v>
@@ -4164,55 +4296,58 @@
         <v>292</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O31" s="1" t="b">
-        <v>1</v>
+        <v>293</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P31" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R31" s="5">
         <v>45555.222520324074</v>
       </c>
-      <c r="R31" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S31" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="T31" s="1">
+        <v>287</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="U31" s="1">
         <v>8.572605058303754</v>
       </c>
-      <c r="U31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V31" s="1">
+      <c r="V31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W31" s="1">
         <v>41.32526553369978</v>
       </c>
-      <c r="W31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X31" s="1">
+      <c r="X31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y31" s="1">
         <v>39.803008060997115</v>
       </c>
-      <c r="Y31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z31" s="1">
+      <c r="Z31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA31" s="1">
         <v>15.712373004619895</v>
       </c>
-      <c r="AA31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB31" s="1">
+      <c r="AB31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC31" s="1">
         <v>6.9748778563290745</v>
       </c>
-      <c r="AC31" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD31" s="1" t="s">
-        <v>293</v>
+        <v>41</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -4220,34 +4355,35 @@
         <v>2.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E32" s="1">
         <v>6.41088587E8</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="F32" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F32,""it"",""fr"")"),"MASQUE RÉGÉNÉRANT SOIN POST LISSANT 100 mlDernière phase du soin DIKSO LISSAGE. LISSACTIVE, complète l'effet régénérant des cheveux et les laisse soyeux au toucher, brillants et visiblement sains. Peut également être utilisé en masque d'entretien post-tra"&amp;"itement en association avec 1 DIKSO LISSAGE.LISSACTIVE. Shampooing.")</f>
+        <v>MASQUE RÉGÉNÉRANT SOIN POST LISSANT 100 mlDernière phase du soin DIKSO LISSAGE. LISSACTIVE, complète l'effet régénérant des cheveux et les laisse soyeux au toucher, brillants et visiblement sains. Peut également être utilisé en masque d'entretien post-traitement en association avec 1 DIKSO LISSAGE.LISSACTIVE. Shampooing.</v>
+      </c>
+      <c r="H32" s="1">
         <v>7.0</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>9.0</v>
-      </c>
-      <c r="I32" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>298</v>
+      <c r="K32" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>299</v>
@@ -4256,55 +4392,58 @@
         <v>300</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O32" s="1" t="b">
-        <v>1</v>
+        <v>301</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R32" s="5">
         <v>45528.63473070602</v>
       </c>
-      <c r="R32" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="S32" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="T32" s="1">
+        <v>295</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="U32" s="1">
         <v>0.838487836551457</v>
       </c>
-      <c r="U32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V32" s="1">
+      <c r="V32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W32" s="1">
         <v>4.588526845286262</v>
       </c>
-      <c r="W32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X32" s="1">
+      <c r="X32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y32" s="1">
         <v>15.429018401594117</v>
       </c>
-      <c r="Y32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z32" s="1">
+      <c r="Z32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA32" s="1">
         <v>28.79609297247657</v>
       </c>
-      <c r="AA32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB32" s="1">
+      <c r="AB32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC32" s="1">
         <v>0.28430622069462297</v>
       </c>
-      <c r="AC32" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD32" s="1" t="s">
-        <v>302</v>
+        <v>41</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -4312,34 +4451,35 @@
         <v>2.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E33" s="1">
         <v>1.91221275E8</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="F33" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F33,""it"",""fr"")"),"CRÈME DE TRAITEMENT LISSANTE ANTI-FRIZZ 250mlCœur du soin DIKSO LISSAGE. LISSACTIVE, lisse les cheveux tout en les régénérant.")</f>
+        <v>CRÈME DE TRAITEMENT LISSANTE ANTI-FRIZZ 250mlCœur du soin DIKSO LISSAGE. LISSACTIVE, lisse les cheveux tout en les régénérant.</v>
+      </c>
+      <c r="H33" s="1">
         <v>3.0</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>10.0</v>
       </c>
-      <c r="I33" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>308</v>
@@ -4348,55 +4488,58 @@
         <v>309</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O33" s="1" t="b">
-        <v>1</v>
+        <v>310</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" s="5">
         <v>45343.74633392361</v>
       </c>
-      <c r="R33" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="S33" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="T33" s="1">
+        <v>304</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="U33" s="1">
         <v>6.317941739087358</v>
       </c>
-      <c r="U33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V33" s="1">
+      <c r="V33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W33" s="1">
         <v>49.45018003505098</v>
       </c>
-      <c r="W33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X33" s="1">
+      <c r="X33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y33" s="1">
         <v>3.344805455863821</v>
       </c>
-      <c r="Y33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z33" s="1">
+      <c r="Z33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA33" s="1">
         <v>16.382961064447635</v>
       </c>
-      <c r="AA33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB33" s="1">
+      <c r="AB33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC33" s="1">
         <v>1.7461669853988635</v>
       </c>
-      <c r="AC33" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD33" s="1" t="s">
-        <v>310</v>
+        <v>41</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -4404,34 +4547,35 @@
         <v>2.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E34" s="1">
         <v>7.33595173E8</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="F34" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F34,""it"",""fr"")"),"SHAMPOOING PRÉ-TRAITEMENT LISSANT 100 ml Nettoie les cheveux en douceur et les prépare aux phases suivantes du traitement lissant anti-frisottis DIKSO LISSAGE. LISSACTIVE.Sans sulfate.A utiliser uniquement en association avec la crème traitante lissante e"&amp;"t comme shampoing d'entretien post-traitement.")</f>
+        <v>SHAMPOOING PRÉ-TRAITEMENT LISSANT 100 ml Nettoie les cheveux en douceur et les prépare aux phases suivantes du traitement lissant anti-frisottis DIKSO LISSAGE. LISSACTIVE.Sans sulfate.A utiliser uniquement en association avec la crème traitante lissante et comme shampoing d'entretien post-traitement.</v>
+      </c>
+      <c r="H34" s="1">
         <v>5.0</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>9.0</v>
       </c>
-      <c r="I34" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>316</v>
@@ -4440,55 +4584,58 @@
         <v>317</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O34" s="1" t="b">
-        <v>1</v>
+        <v>318</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P34" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" s="5">
         <v>45404.679504583335</v>
       </c>
-      <c r="R34" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="S34" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="T34" s="1">
+        <v>312</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="U34" s="1">
         <v>8.461982014164516</v>
       </c>
-      <c r="U34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V34" s="1">
+      <c r="V34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W34" s="1">
         <v>40.39244109875344</v>
       </c>
-      <c r="W34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X34" s="1">
+      <c r="X34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y34" s="1">
         <v>3.8215681251269578</v>
       </c>
-      <c r="Y34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z34" s="1">
+      <c r="Z34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA34" s="1">
         <v>16.53797712518329</v>
       </c>
-      <c r="AA34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB34" s="1">
+      <c r="AB34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC34" s="1">
         <v>9.256013268746452</v>
       </c>
-      <c r="AC34" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD34" s="1" t="s">
-        <v>319</v>
+        <v>41</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -4496,34 +4643,35 @@
         <v>2.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E35" s="1">
         <v>4.86927928E8</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="F35" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F35,""it"",""fr"")"),"Une VAGUE DE TRAITEMENT spéciale développée par les Laboratoires de Recherche Dikson avec pour objectif premier d'allier qualité du résultat et respect des cheveux et du cuir chevelu. L'élément INNOVANT sur lequel il repose est une FORMULATION ÉQUILIBRÉE "&amp;"UNIQUE et un TRAITEMENT EXCLUSIF, qui permet son application sur TOUS LES TYPES DE CHEVEUX (naturels, traités, colorés). Une autre particularité qui le rend applicable sur TOUS LES TYPES DE CHEVEUX est sa NON-AGRESSIVITÉ, car il est SANS AMMONIAQUE et SAN"&amp;"S ACIDE THIOGLICOLIQUE. Il stabilise au mieux la ondulation, la rend uniforme des racines aux pointes et neutralise efficacement les résidus alcalins de la. liquide ondulant, tandis que les agents revitalisants garantissent protection et hydratation, prés"&amp;"ervant la structure du cheveu.750 ml")</f>
+        <v>Une VAGUE DE TRAITEMENT spéciale développée par les Laboratoires de Recherche Dikson avec pour objectif premier d'allier qualité du résultat et respect des cheveux et du cuir chevelu. L'élément INNOVANT sur lequel il repose est une FORMULATION ÉQUILIBRÉE UNIQUE et un TRAITEMENT EXCLUSIF, qui permet son application sur TOUS LES TYPES DE CHEVEUX (naturels, traités, colorés). Une autre particularité qui le rend applicable sur TOUS LES TYPES DE CHEVEUX est sa NON-AGRESSIVITÉ, car il est SANS AMMONIAQUE et SANS ACIDE THIOGLICOLIQUE. Il stabilise au mieux la ondulation, la rend uniforme des racines aux pointes et neutralise efficacement les résidus alcalins de la. liquide ondulant, tandis que les agents revitalisants garantissent protection et hydratation, préservant la structure du cheveu.750 ml</v>
+      </c>
+      <c r="H35" s="1">
         <v>3.0</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>7.0</v>
       </c>
-      <c r="I35" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>325</v>
@@ -4532,55 +4680,58 @@
         <v>326</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O35" s="1" t="b">
-        <v>1</v>
+        <v>327</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P35" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R35" s="5">
         <v>45412.70917079861</v>
       </c>
-      <c r="R35" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="S35" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="T35" s="1">
+        <v>321</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="U35" s="1">
         <v>8.89050433151921</v>
       </c>
-      <c r="U35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="1">
+      <c r="V35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W35" s="1">
         <v>26.543017735307927</v>
       </c>
-      <c r="W35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X35" s="1">
+      <c r="X35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y35" s="1">
         <v>20.369150234428346</v>
       </c>
-      <c r="Y35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z35" s="1">
+      <c r="Z35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA35" s="1">
         <v>44.53019262656567</v>
       </c>
-      <c r="AA35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB35" s="1">
+      <c r="AB35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC35" s="1">
         <v>7.074536875532206</v>
       </c>
-      <c r="AC35" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD35" s="1" t="s">
-        <v>328</v>
+        <v>41</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -4588,34 +4739,35 @@
         <v>2.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E36" s="1">
         <v>4.74676737E8</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G36" s="1">
-        <v>2.0</v>
+      <c r="F36" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F36,""it"",""fr"")"),"#VALUE!")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H36" s="1">
         <v>2.0</v>
       </c>
-      <c r="I36" s="1" t="b">
-        <v>0</v>
+      <c r="I36" s="1">
+        <v>2.0</v>
       </c>
       <c r="J36" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>333</v>
+      <c r="K36" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>334</v>
@@ -4624,55 +4776,58 @@
         <v>335</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O36" s="1" t="b">
-        <v>1</v>
+        <v>336</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P36" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R36" s="5">
         <v>45278.679846493054</v>
       </c>
-      <c r="R36" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="S36" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="T36" s="1">
+        <v>330</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="U36" s="1">
         <v>6.728902219638829</v>
       </c>
-      <c r="U36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V36" s="1">
+      <c r="V36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W36" s="1">
         <v>25.310821013053996</v>
       </c>
-      <c r="W36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X36" s="1">
+      <c r="X36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y36" s="1">
         <v>10.080875060110955</v>
       </c>
-      <c r="Y36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z36" s="1">
+      <c r="Z36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA36" s="1">
         <v>30.385443879231527</v>
       </c>
-      <c r="AA36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB36" s="1">
+      <c r="AB36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC36" s="1">
         <v>7.423164497347213</v>
       </c>
-      <c r="AC36" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD36" s="1" t="s">
-        <v>336</v>
+        <v>41</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -4680,34 +4835,35 @@
         <v>2.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E37" s="1">
         <v>1.07429724E8</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="F37" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F37,""it"",""fr"")"),"Une nouvelle expérience professionnelle pour la couleur de vos cheveux.Couverture à 100% des cheveux gris.Sans sles ni paraben.Formule aux actifs sélectionnés pour une haute qualité cosmétique.Couleur stable.Base revitalisante crémeuse.Reflets naturels et"&amp;" brillance extraordinaire.Large gamme de couleurs variations. Nuances froides. Tube de 120 ml pour 2 traitements de couleur.")</f>
+        <v>Une nouvelle expérience professionnelle pour la couleur de vos cheveux.Couverture à 100% des cheveux gris.Sans sles ni paraben.Formule aux actifs sélectionnés pour une haute qualité cosmétique.Couleur stable.Base revitalisante crémeuse.Reflets naturels et brillance extraordinaire.Large gamme de couleurs variations. Nuances froides. Tube de 120 ml pour 2 traitements de couleur.</v>
+      </c>
+      <c r="H37" s="1">
         <v>10.0</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>2.0</v>
-      </c>
-      <c r="I37" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J37" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>341</v>
+      <c r="K37" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>342</v>
@@ -4716,55 +4872,58 @@
         <v>343</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O37" s="1" t="b">
-        <v>1</v>
+        <v>344</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R37" s="5">
         <v>45529.828691608796</v>
       </c>
-      <c r="R37" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="S37" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="T37" s="1">
+        <v>338</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="U37" s="1">
         <v>5.016964031429427</v>
       </c>
-      <c r="U37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V37" s="1">
+      <c r="V37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W37" s="1">
         <v>23.946678708481095</v>
       </c>
-      <c r="W37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X37" s="1">
+      <c r="X37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y37" s="1">
         <v>46.10820671957365</v>
       </c>
-      <c r="Y37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z37" s="1">
+      <c r="Z37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA37" s="1">
         <v>46.280817180937774</v>
       </c>
-      <c r="AA37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB37" s="1">
+      <c r="AB37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC37" s="1">
         <v>1.3833814320312827</v>
       </c>
-      <c r="AC37" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD37" s="1" t="s">
-        <v>345</v>
+        <v>41</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -4772,34 +4931,35 @@
         <v>2.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E38" s="1">
         <v>1.15407782E8</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="F38" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F38,""it"",""fr"")"),"Émulsion oxydante pour coloration et blanchiment; destiné exclusivement à être utilisé dans des mélanges avec des colorants oxydants ou des poudres/crèmes décolorantes pour cheveux Usage professionnel 125 ml.")</f>
+        <v>Émulsion oxydante pour coloration et blanchiment; destiné exclusivement à être utilisé dans des mélanges avec des colorants oxydants ou des poudres/crèmes décolorantes pour cheveux Usage professionnel 125 ml.</v>
+      </c>
+      <c r="H38" s="1">
         <v>6.0</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>2.0</v>
       </c>
-      <c r="I38" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>351</v>
@@ -4808,55 +4968,58 @@
         <v>352</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O38" s="1" t="b">
-        <v>1</v>
+        <v>353</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P38" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R38" s="5">
         <v>45538.40749783565</v>
       </c>
-      <c r="R38" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="S38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T38" s="1">
+        <v>347</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U38" s="1">
         <v>0.9785855145487568</v>
       </c>
-      <c r="U38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V38" s="1">
+      <c r="V38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38" s="1">
         <v>47.60401695640516</v>
       </c>
-      <c r="W38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X38" s="1">
+      <c r="X38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y38" s="1">
         <v>39.9594468158633</v>
       </c>
-      <c r="Y38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z38" s="1">
+      <c r="Z38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA38" s="1">
         <v>3.73390069115178</v>
       </c>
-      <c r="AA38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB38" s="1">
+      <c r="AB38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC38" s="1">
         <v>4.612441778442349</v>
       </c>
-      <c r="AC38" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD38" s="1" t="s">
-        <v>353</v>
+        <v>41</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -4864,34 +5027,35 @@
         <v>2.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E39" s="1">
         <v>5.97214622E8</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="F39" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F39,""it"",""fr"")"),"Contient des Protéines de Soie, qui donnent de la brillance et forment une couche protectrice, et des Extraits Placentaires, qui favorisent l'équilibre physiologique du cuir chevelu, apportant vigueur et santé pour des cheveux énergiques et forts.")</f>
+        <v>Contient des Protéines de Soie, qui donnent de la brillance et forment une couche protectrice, et des Extraits Placentaires, qui favorisent l'équilibre physiologique du cuir chevelu, apportant vigueur et santé pour des cheveux énergiques et forts.</v>
+      </c>
+      <c r="H39" s="1">
         <v>9.0</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>8.0</v>
-      </c>
-      <c r="I39" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="J39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>358</v>
+      <c r="K39" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>359</v>
@@ -4900,1018 +5064,2943 @@
         <v>360</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O39" s="1" t="b">
-        <v>1</v>
+        <v>361</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="P39" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R39" s="5">
         <v>45493.438428379624</v>
       </c>
-      <c r="R39" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="S39" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="T39" s="1">
+        <v>355</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="U39" s="1">
         <v>3.793735230392677</v>
       </c>
-      <c r="U39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V39" s="1">
+      <c r="V39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W39" s="1">
         <v>11.341043176987778</v>
       </c>
-      <c r="W39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X39" s="1">
+      <c r="X39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y39" s="1">
         <v>40.77880505539729</v>
       </c>
-      <c r="Y39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z39" s="1">
+      <c r="Z39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA39" s="1">
         <v>9.091282115256885</v>
       </c>
-      <c r="AA39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB39" s="1">
+      <c r="AB39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC39" s="1">
         <v>8.026459118022066</v>
       </c>
-      <c r="AC39" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD39" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+        <v>41</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="F125" s="4"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="F150" s="4"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="F152" s="4"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="F153" s="4"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="F155" s="4"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="F156" s="4"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="F157" s="4"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="F158" s="4"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="F159" s="4"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="F160" s="4"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="F162" s="4"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="F163" s="4"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="F164" s="4"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="F165" s="4"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="F166" s="4"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="F167" s="4"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="F168" s="4"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="F169" s="4"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="F170" s="4"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="F171" s="4"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="F172" s="4"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="F173" s="4"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="F174" s="4"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="F175" s="4"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="F176" s="4"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="F177" s="4"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="F178" s="4"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="F179" s="4"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="F180" s="4"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="F181" s="4"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="F182" s="4"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="F183" s="4"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="F184" s="4"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="F185" s="4"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="F186" s="4"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="F187" s="4"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="F188" s="4"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="F189" s="4"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="F190" s="4"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="F191" s="4"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="F192" s="4"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="F193" s="4"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="F194" s="4"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="F195" s="4"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="F196" s="4"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="F197" s="4"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="F198" s="4"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="F199" s="4"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="F200" s="4"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="F201" s="4"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="F202" s="4"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="F203" s="4"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="F204" s="4"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="F205" s="4"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="F206" s="4"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="F207" s="4"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="F208" s="4"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="F209" s="4"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="F210" s="4"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="F211" s="4"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="F212" s="4"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="F213" s="4"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="F214" s="4"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="F215" s="4"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="F216" s="4"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="F217" s="4"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="F218" s="4"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="F219" s="4"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="F220" s="4"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="F221" s="4"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="F222" s="4"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="F223" s="4"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="F224" s="4"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="F225" s="4"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="F226" s="4"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="F227" s="4"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="F228" s="4"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="F229" s="4"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="F230" s="4"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="F231" s="4"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="F232" s="4"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="F233" s="4"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="F234" s="4"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="F235" s="4"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="F236" s="4"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="F237" s="4"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="F238" s="4"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="F239" s="4"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="F240" s="4"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="F241" s="4"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="F242" s="4"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="F243" s="4"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="F244" s="4"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="F245" s="4"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="F246" s="4"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="F247" s="4"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="F248" s="4"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="F249" s="4"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="F250" s="4"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="F251" s="4"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="F252" s="4"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="F253" s="4"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="F254" s="4"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="F255" s="4"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="F256" s="4"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="F257" s="4"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="F258" s="4"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="F259" s="4"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="F260" s="4"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="F261" s="4"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="F262" s="4"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="F263" s="4"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="F264" s="4"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="F265" s="4"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="F266" s="4"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="F267" s="4"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="F268" s="4"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="F269" s="4"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="F270" s="4"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="F271" s="4"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="F272" s="4"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="F273" s="4"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="F274" s="4"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="F275" s="4"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="F276" s="4"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="F277" s="4"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="F278" s="4"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="F279" s="4"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="F280" s="4"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="F281" s="4"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="F282" s="4"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="F283" s="4"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="F284" s="4"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="F285" s="4"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="F286" s="4"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="F287" s="4"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="F288" s="4"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="F289" s="4"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="F290" s="4"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="F291" s="4"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="F292" s="4"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="F293" s="4"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="F294" s="4"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="F295" s="4"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="F296" s="4"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="F297" s="4"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="F298" s="4"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="F299" s="4"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="F300" s="4"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="F301" s="4"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="F302" s="4"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="F303" s="4"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="F304" s="4"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="F305" s="4"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="F306" s="4"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="F307" s="4"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="F308" s="4"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="F309" s="4"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="F310" s="4"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="F311" s="4"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="F312" s="4"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="F313" s="4"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="F314" s="4"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="F315" s="4"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="F316" s="4"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="F317" s="4"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="F318" s="4"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="F319" s="4"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="F320" s="4"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="F321" s="4"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="F322" s="4"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="F323" s="4"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="F324" s="4"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="F325" s="4"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="F326" s="4"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="F327" s="4"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="F328" s="4"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="F329" s="4"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="F330" s="4"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="F331" s="4"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="F332" s="4"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="F333" s="4"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="F334" s="4"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="F335" s="4"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="F336" s="4"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="F337" s="4"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="F338" s="4"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="F339" s="4"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="F340" s="4"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="F341" s="4"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="F342" s="4"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="F343" s="4"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="F344" s="4"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="F345" s="4"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="F346" s="4"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="F347" s="4"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="F348" s="4"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="F349" s="4"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="F350" s="4"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="F351" s="4"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="F352" s="4"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="F353" s="4"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="F354" s="4"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="F355" s="4"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="F356" s="4"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="F357" s="4"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="F358" s="4"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="F359" s="4"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="F360" s="4"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="F361" s="4"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="F362" s="4"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="F363" s="4"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="F364" s="4"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="F365" s="4"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="F366" s="4"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="F367" s="4"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="F368" s="4"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="F369" s="4"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="F370" s="4"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="F371" s="4"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="F372" s="4"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="F373" s="4"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="F374" s="4"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="F375" s="4"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="F376" s="4"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="F377" s="4"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="F378" s="4"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="F379" s="4"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="F380" s="4"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="F381" s="4"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="F382" s="4"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="F383" s="4"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="F384" s="4"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="F385" s="4"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="F386" s="4"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="F387" s="4"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="F388" s="4"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="F389" s="4"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="F390" s="4"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="F391" s="4"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="F392" s="4"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="F393" s="4"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="F394" s="4"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="F395" s="4"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="F396" s="4"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="F397" s="4"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="F398" s="4"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="F399" s="4"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="F400" s="4"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="F401" s="4"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="F402" s="4"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="F403" s="4"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="F404" s="4"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="F405" s="4"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="F406" s="4"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="F407" s="4"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="F408" s="4"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="F409" s="4"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="F410" s="4"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="F411" s="4"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="F412" s="4"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="F413" s="4"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="F414" s="4"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="F415" s="4"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="F416" s="4"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="F417" s="4"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="F418" s="4"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="F419" s="4"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="F420" s="4"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="F421" s="4"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="F422" s="4"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="F423" s="4"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="F424" s="4"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="F425" s="4"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="F426" s="4"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="F427" s="4"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="F428" s="4"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="F429" s="4"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="F430" s="4"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="F431" s="4"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="F432" s="4"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="F433" s="4"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="F434" s="4"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="F435" s="4"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="F436" s="4"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="F437" s="4"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="F438" s="4"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="F439" s="4"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="F440" s="4"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="F441" s="4"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="F442" s="4"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="F443" s="4"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="F444" s="4"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="F445" s="4"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="F446" s="4"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="F447" s="4"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="F448" s="4"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="F449" s="4"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="F450" s="4"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="F451" s="4"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="F452" s="4"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="F453" s="4"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="F454" s="4"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="F455" s="4"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="F456" s="4"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="F457" s="4"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="F458" s="4"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="F459" s="4"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="F460" s="4"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="F461" s="4"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="F462" s="4"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="F463" s="4"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="F464" s="4"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="F465" s="4"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="F466" s="4"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="F467" s="4"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="F468" s="4"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="F469" s="4"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="F470" s="4"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="F471" s="4"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="F472" s="4"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="F473" s="4"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="F474" s="4"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="F475" s="4"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="F476" s="4"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="F477" s="4"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="F478" s="4"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="F479" s="4"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="F480" s="4"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="F481" s="4"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="F482" s="4"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="F483" s="4"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="F484" s="4"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="F485" s="4"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="F486" s="4"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="F487" s="4"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="F488" s="4"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="F489" s="4"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="F490" s="4"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="F491" s="4"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="F492" s="4"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="F493" s="4"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="F494" s="4"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="F495" s="4"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="F496" s="4"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="F497" s="4"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="F498" s="4"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="F499" s="4"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="F500" s="4"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="F501" s="4"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="F502" s="4"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="F503" s="4"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="F504" s="4"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="F505" s="4"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="F506" s="4"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="F507" s="4"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="F508" s="4"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="F509" s="4"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="F510" s="4"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="F511" s="4"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="F512" s="4"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="F513" s="4"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="F514" s="4"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="F515" s="4"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="F516" s="4"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="F517" s="4"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="F518" s="4"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="F519" s="4"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="F520" s="4"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="F521" s="4"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="F522" s="4"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="F523" s="4"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="F524" s="4"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="F525" s="4"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="F526" s="4"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="F527" s="4"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="F528" s="4"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="F529" s="4"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="F530" s="4"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="F531" s="4"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="F532" s="4"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="F533" s="4"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="F534" s="4"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="F535" s="4"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="F536" s="4"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="F537" s="4"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="F538" s="4"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="F539" s="4"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="F540" s="4"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="F541" s="4"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="F542" s="4"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="F543" s="4"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="F544" s="4"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="F545" s="4"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="F546" s="4"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="F547" s="4"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="F548" s="4"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="F549" s="4"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="F550" s="4"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="F551" s="4"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="F552" s="4"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="F553" s="4"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="F554" s="4"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="F555" s="4"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="F556" s="4"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="F557" s="4"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="F558" s="4"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="F559" s="4"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="F560" s="4"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="F561" s="4"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="F562" s="4"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="F563" s="4"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="F564" s="4"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="F565" s="4"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="F566" s="4"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="F567" s="4"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="F568" s="4"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="F569" s="4"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="F570" s="4"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="F571" s="4"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="F572" s="4"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="F573" s="4"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="F574" s="4"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="F575" s="4"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="F576" s="4"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="F577" s="4"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="F578" s="4"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="F579" s="4"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="F580" s="4"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="F581" s="4"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="F582" s="4"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="F583" s="4"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="F584" s="4"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="F585" s="4"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="F586" s="4"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="F587" s="4"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="F588" s="4"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="F589" s="4"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="F590" s="4"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="F591" s="4"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="F592" s="4"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="F593" s="4"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="F594" s="4"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="F595" s="4"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="F596" s="4"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="F597" s="4"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="F598" s="4"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="F599" s="4"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="F600" s="4"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="F601" s="4"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="F602" s="4"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="F603" s="4"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="F604" s="4"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="F605" s="4"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="F606" s="4"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="F607" s="4"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="F608" s="4"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="F609" s="4"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="F610" s="4"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="F611" s="4"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="F612" s="4"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="F613" s="4"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="F614" s="4"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="F615" s="4"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="F616" s="4"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="F617" s="4"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="F618" s="4"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="F619" s="4"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="F620" s="4"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="F621" s="4"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="F622" s="4"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="F623" s="4"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="F624" s="4"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="F625" s="4"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="F626" s="4"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="F627" s="4"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="F628" s="4"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="F629" s="4"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="F630" s="4"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="F631" s="4"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="F632" s="4"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="F633" s="4"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="F634" s="4"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="F635" s="4"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="F636" s="4"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="F637" s="4"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="F638" s="4"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="F639" s="4"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="F640" s="4"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="F641" s="4"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="F642" s="4"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="F643" s="4"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="F644" s="4"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="F645" s="4"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="F646" s="4"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="F647" s="4"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="F648" s="4"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="F649" s="4"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="F650" s="4"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="F651" s="4"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="F652" s="4"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="F653" s="4"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="F654" s="4"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="F655" s="4"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="F656" s="4"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="F657" s="4"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="F658" s="4"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="F659" s="4"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="F660" s="4"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="F661" s="4"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="F662" s="4"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="F663" s="4"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="F664" s="4"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="F665" s="4"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="F666" s="4"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="F667" s="4"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="F668" s="4"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="F669" s="4"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="F670" s="4"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="F671" s="4"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="F672" s="4"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="F673" s="4"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="F674" s="4"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="F675" s="4"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="F676" s="4"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="F677" s="4"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="F678" s="4"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="F679" s="4"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="F680" s="4"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="F681" s="4"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="F682" s="4"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="F683" s="4"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="F684" s="4"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="F685" s="4"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="F686" s="4"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="F687" s="4"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="F688" s="4"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="F689" s="4"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="F690" s="4"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="F691" s="4"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="F692" s="4"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="F693" s="4"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="F694" s="4"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="F695" s="4"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="F696" s="4"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="F697" s="4"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="F698" s="4"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="F699" s="4"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="F700" s="4"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="F701" s="4"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="F702" s="4"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="F703" s="4"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="F704" s="4"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="F705" s="4"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="F706" s="4"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="F707" s="4"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="F708" s="4"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="F709" s="4"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="F710" s="4"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="F711" s="4"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="F712" s="4"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="F713" s="4"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="F714" s="4"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="F715" s="4"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="F716" s="4"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="F717" s="4"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="F718" s="4"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="F719" s="4"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="F720" s="4"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="F721" s="4"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="F722" s="4"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="F723" s="4"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="F724" s="4"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="F725" s="4"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="F726" s="4"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="F727" s="4"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="F728" s="4"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="F729" s="4"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="F730" s="4"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="F731" s="4"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="F732" s="4"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="F733" s="4"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="F734" s="4"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="F735" s="4"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="F736" s="4"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="F737" s="4"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="F738" s="4"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="F739" s="4"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="F740" s="4"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="F741" s="4"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="F742" s="4"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="F743" s="4"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="F744" s="4"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="F745" s="4"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="F746" s="4"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="F747" s="4"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="F748" s="4"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="F749" s="4"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="F750" s="4"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="F751" s="4"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="F752" s="4"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="F753" s="4"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="F754" s="4"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="F755" s="4"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="F756" s="4"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="F757" s="4"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="F758" s="4"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="F759" s="4"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="F760" s="4"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="F761" s="4"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="F762" s="4"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="F763" s="4"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="F764" s="4"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="F765" s="4"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="F766" s="4"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="F767" s="4"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="F768" s="4"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="F769" s="4"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="F770" s="4"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="F771" s="4"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="F772" s="4"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="F773" s="4"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="F774" s="4"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="F775" s="4"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="F776" s="4"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="F777" s="4"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="F778" s="4"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="F779" s="4"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="F780" s="4"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="F781" s="4"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="F782" s="4"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="F783" s="4"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="F784" s="4"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="F785" s="4"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="F786" s="4"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="F787" s="4"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="F788" s="4"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="F789" s="4"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="F790" s="4"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="F791" s="4"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="F792" s="4"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="F793" s="4"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="F794" s="4"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="F795" s="4"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="F796" s="4"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="F797" s="4"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="F798" s="4"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="F799" s="4"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="F800" s="4"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="F801" s="4"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="F802" s="4"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="F803" s="4"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="F804" s="4"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="F805" s="4"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="F806" s="4"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="F807" s="4"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="F808" s="4"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="F809" s="4"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="F810" s="4"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="F811" s="4"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="F812" s="4"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="F813" s="4"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="F814" s="4"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="F815" s="4"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="F816" s="4"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="F817" s="4"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="F818" s="4"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="F819" s="4"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="F820" s="4"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="F821" s="4"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="F822" s="4"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="F823" s="4"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="F824" s="4"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="F825" s="4"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="F826" s="4"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="F827" s="4"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="F828" s="4"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="F829" s="4"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="F830" s="4"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="F831" s="4"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="F832" s="4"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="F833" s="4"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="F834" s="4"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="F835" s="4"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="F836" s="4"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="F837" s="4"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="F838" s="4"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="F839" s="4"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="F840" s="4"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="F841" s="4"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="F842" s="4"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="F843" s="4"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="F844" s="4"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="F845" s="4"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="F846" s="4"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="F847" s="4"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="F848" s="4"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="F849" s="4"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="F850" s="4"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="F851" s="4"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="F852" s="4"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="F853" s="4"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="F854" s="4"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="F855" s="4"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="F856" s="4"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="F857" s="4"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="F858" s="4"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="F859" s="4"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="F860" s="4"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="F861" s="4"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="F862" s="4"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="F863" s="4"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="F864" s="4"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="F865" s="4"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="F866" s="4"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="F867" s="4"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="F868" s="4"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="F869" s="4"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="F870" s="4"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="F871" s="4"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="F872" s="4"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="F873" s="4"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="F874" s="4"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="F875" s="4"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="F876" s="4"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="F877" s="4"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="F878" s="4"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="F879" s="4"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="F880" s="4"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="F881" s="4"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="F882" s="4"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="F883" s="4"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="F884" s="4"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="F885" s="4"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="F886" s="4"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="F887" s="4"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="F888" s="4"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="F889" s="4"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="F890" s="4"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="F891" s="4"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="F892" s="4"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="F893" s="4"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="F894" s="4"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="F895" s="4"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="F896" s="4"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="F897" s="4"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="F898" s="4"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="F899" s="4"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="F900" s="4"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="F901" s="4"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="F902" s="4"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="F903" s="4"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="F904" s="4"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="F905" s="4"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="F906" s="4"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="F907" s="4"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="F908" s="4"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="F909" s="4"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="F910" s="4"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="F911" s="4"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="F912" s="4"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="F913" s="4"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="F914" s="4"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="F915" s="4"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="F916" s="4"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="F917" s="4"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="F918" s="4"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="F919" s="4"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="F920" s="4"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="F921" s="4"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="F922" s="4"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="F923" s="4"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="F924" s="4"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="F925" s="4"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="F926" s="4"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="F927" s="4"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="F928" s="4"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="F929" s="4"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="F930" s="4"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="F931" s="4"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="F932" s="4"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="F933" s="4"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="F934" s="4"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="F935" s="4"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="F936" s="4"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="F937" s="4"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="F938" s="4"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="F939" s="4"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="F940" s="4"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="F941" s="4"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="F942" s="4"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="F943" s="4"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="F944" s="4"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="F945" s="4"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="F946" s="4"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="F947" s="4"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="F948" s="4"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="F949" s="4"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="F950" s="4"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="F951" s="4"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="F952" s="4"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="F953" s="4"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="F954" s="4"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="F955" s="4"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="F956" s="4"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="F957" s="4"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="F958" s="4"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="F959" s="4"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="F960" s="4"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="F961" s="4"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="F962" s="4"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="F963" s="4"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="F964" s="4"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="F965" s="4"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="F966" s="4"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="F967" s="4"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="F968" s="4"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="F969" s="4"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="F970" s="4"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="F971" s="4"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="F972" s="4"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="F973" s="4"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="F974" s="4"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="F975" s="4"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="F976" s="4"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="F977" s="4"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="F978" s="4"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="F979" s="4"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="F980" s="4"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="F981" s="4"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="F982" s="4"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="F983" s="4"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="F984" s="4"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="F985" s="4"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="F986" s="4"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="F987" s="4"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="F988" s="4"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="F989" s="4"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="F990" s="4"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="F991" s="4"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="F992" s="4"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="F993" s="4"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="F994" s="4"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="F995" s="4"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="F996" s="4"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="F997" s="4"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="F998" s="4"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="F999" s="4"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="F1000" s="4"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
